--- a/populationInfo/Schematic.xlsx
+++ b/populationInfo/Schematic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DESTv2/populationInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A017BC-85E5-9940-B90D-FA682D46D81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5B2532-3DA2-124B-B45B-18642A0976C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="500" windowWidth="26520" windowHeight="14400" xr2:uid="{E5895BA0-36EB-084B-8110-BB584ACAFF39}"/>
   </bookViews>
@@ -254,10 +254,10 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>DrosEU_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequencing / </t>
+    <t>DrosEU_3 library stats</t>
+  </si>
+  <si>
+    <t>Sequencing / info</t>
   </si>
 </sst>
 </file>
@@ -281,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +324,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -337,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -352,6 +358,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -380,6 +389,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,7 +716,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,25 +726,25 @@
     <col min="3" max="3" width="3.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" style="18" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="12"/>
+      <c r="G1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -735,16 +753,16 @@
       <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -755,16 +773,16 @@
       <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -775,48 +793,48 @@
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="14"/>
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>2014</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>1</v>
       </c>
     </row>
@@ -827,10 +845,10 @@
       <c r="B7" s="4">
         <v>46.813688900000002</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>229</v>
       </c>
     </row>
@@ -841,16 +859,16 @@
       <c r="B8" s="4">
         <v>13.507947919999999</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6" t="b">
+      <c r="E8" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -859,16 +877,16 @@
       <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -879,16 +897,16 @@
       <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -899,10 +917,10 @@
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>40</v>
       </c>
     </row>
@@ -915,154 +933,154 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="G13" s="9" t="s">
+      <c r="E13" s="16"/>
+      <c r="G13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="15"/>
+      <c r="D14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="17">
         <v>5.9443999999999997E-2</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="17">
         <v>0.93686167053097502</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="17">
         <v>5.4489226404968303</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="17">
         <v>50.173441070845598</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="17">
         <v>3.6737760267660201E-2</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="1" t="s">
+      <c r="E20" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E21" s="17" t="s">
         <v>58</v>
       </c>
     </row>
